--- a/Finflux Automation Excels/Client/4928-FLAT-DB-SAR-PartialPeriod-InitialBrokenPeriod-DistEqualyToAllInst.xlsx
+++ b/Finflux Automation Excels/Client/4928-FLAT-DB-SAR-PartialPeriod-InitialBrokenPeriod-DistEqualyToAllInst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,14 +851,14 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -895,10 +895,10 @@
       <c r="L1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="7"/>
       <c r="O1" s="7" t="s">
         <v>43</v>
       </c>
@@ -971,10 +971,10 @@
       <c r="L3" s="8">
         <v>1776</v>
       </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
       <c r="O3" s="10">
         <v>0</v>
       </c>
@@ -1016,10 +1016,10 @@
       <c r="L4" s="10">
         <v>0</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
       <c r="O4" s="10">
         <v>0</v>
       </c>
@@ -1061,10 +1061,10 @@
       <c r="L5" s="10">
         <v>0</v>
       </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
       <c r="O5" s="10">
         <v>0</v>
       </c>
@@ -1106,10 +1106,10 @@
       <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
       <c r="O6" s="10">
         <v>0</v>
       </c>
@@ -1151,10 +1151,10 @@
       <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
       <c r="O7" s="10">
         <v>0</v>
       </c>
@@ -1196,10 +1196,10 @@
       <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
       <c r="O8" s="10">
         <v>0</v>
       </c>
@@ -1217,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
